--- a/data/trans_orig/P14B25-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BEC5A2-C1CD-47FC-AD60-56112CDED45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4177AEED-BC48-4036-BFFB-19FBB28400AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{048ADBAF-DB17-4F64-988F-D99B70A5F1DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA7E074A-CC3F-4B5A-A9E1-D7CAC9977AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -117,43 +117,43 @@
     <t>61,26%</t>
   </si>
   <si>
-    <t>19,77%</t>
+    <t>9,58%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>16,82%</t>
+    <t>22,6%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>80,23%</t>
+    <t>90,42%</t>
   </si>
   <si>
     <t>25,76%</t>
   </si>
   <si>
-    <t>83,18%</t>
+    <t>77,4%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -171,7 +171,7 @@
     <t>74,47%</t>
   </si>
   <si>
-    <t>32,54%</t>
+    <t>31,19%</t>
   </si>
   <si>
     <t>32,42%</t>
@@ -186,7 +186,7 @@
     <t>25,53%</t>
   </si>
   <si>
-    <t>67,46%</t>
+    <t>68,81%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,7 +201,7 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>32,73%</t>
+    <t>32,74%</t>
   </si>
   <si>
     <t>33,93%</t>
@@ -210,7 +210,7 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>67,27%</t>
+    <t>67,26%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -219,37 +219,37 @@
     <t>84,08%</t>
   </si>
   <si>
-    <t>33,34%</t>
+    <t>34,34%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>20,63%</t>
+    <t>24,18%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>47,74%</t>
+    <t>45,48%</t>
   </si>
   <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>66,66%</t>
+    <t>65,66%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>79,37%</t>
+    <t>75,82%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>52,26%</t>
+    <t>54,52%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -258,79 +258,79 @@
     <t>85,03%</t>
   </si>
   <si>
-    <t>32,56%</t>
+    <t>36,43%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>49,58%</t>
+    <t>53,01%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>67,44%</t>
+    <t>63,57%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>50,42%</t>
+    <t>46,99%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -342,37 +342,37 @@
     <t>82,63%</t>
   </si>
   <si>
-    <t>33,7%</t>
+    <t>25,48%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>31,05%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>50,5%</t>
+    <t>53,58%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>66,3%</t>
+    <t>74,52%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>67,71%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>49,5%</t>
+    <t>46,42%</t>
   </si>
   <si>
     <t>54,27%</t>
@@ -396,7 +396,7 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>36,17%</t>
+    <t>35,84%</t>
   </si>
   <si>
     <t>39,93%</t>
@@ -408,7 +408,7 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>63,83%</t>
+    <t>64,16%</t>
   </si>
   <si>
     <t>75,64%</t>
@@ -423,7 +423,7 @@
     <t>72,87%</t>
   </si>
   <si>
-    <t>29,25%</t>
+    <t>28,07%</t>
   </si>
   <si>
     <t>24,36%</t>
@@ -438,151 +438,151 @@
     <t>27,13%</t>
   </si>
   <si>
-    <t>70,75%</t>
+    <t>71,93%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>85,63%</t>
+    <t>85,59%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>12,67%</t>
+    <t>15,2%</t>
   </si>
   <si>
     <t>50,76%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>14,37%</t>
+    <t>14,41%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>87,33%</t>
+    <t>84,8%</t>
   </si>
   <si>
     <t>49,24%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>50,33%</t>
+    <t>50,04%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>49,67%</t>
+    <t>49,96%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5DD6CB-5D6D-481C-BAB9-F329AA0A8ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354A7D92-003F-4BD9-85AD-C7A11AD3EEF7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28871BCF-97DC-42BE-923A-C98BF1CC57C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A7B774-7A76-4BED-98E2-3620EC648012}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B25-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4177AEED-BC48-4036-BFFB-19FBB28400AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2372D30-4876-4F31-830F-28A91071BB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA7E074A-CC3F-4B5A-A9E1-D7CAC9977AAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5FFA897A-C293-46F5-AF22-AECCC3858A64}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="176">
   <si>
     <t>Población cuyos problemas mentales le limita en 2012 (Tasa respuesta: 0,69%)</t>
   </si>
@@ -117,43 +117,37 @@
     <t>61,26%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>80,23%</t>
   </si>
   <si>
     <t>25,76%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -165,13 +159,10 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>31,19%</t>
+    <t>28,92%</t>
   </si>
   <si>
     <t>32,42%</t>
@@ -180,13 +171,10 @@
     <t>21,58%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>68,81%</t>
+    <t>71,08%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,7 +189,7 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>32,74%</t>
+    <t>33,04%</t>
   </si>
   <si>
     <t>33,93%</t>
@@ -210,7 +198,7 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>67,26%</t>
+    <t>66,96%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -219,160 +207,160 @@
     <t>84,08%</t>
   </si>
   <si>
-    <t>34,34%</t>
+    <t>35,21%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>24,18%</t>
+    <t>20,63%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyos problemas mentales le limita en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población cuyos problemas mentales le limita en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>25,48%</t>
+    <t>38,68%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>32,29%</t>
+    <t>18,74%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>53,58%</t>
+    <t>54,42%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>74,52%</t>
+    <t>61,32%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>67,71%</t>
+    <t>81,26%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>46,42%</t>
+    <t>45,58%</t>
   </si>
   <si>
     <t>54,27%</t>
@@ -396,7 +384,7 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>35,84%</t>
+    <t>36,29%</t>
   </si>
   <si>
     <t>39,93%</t>
@@ -408,7 +396,7 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>64,16%</t>
+    <t>63,71%</t>
   </si>
   <si>
     <t>75,64%</t>
@@ -423,7 +411,7 @@
     <t>72,87%</t>
   </si>
   <si>
-    <t>28,07%</t>
+    <t>29,83%</t>
   </si>
   <si>
     <t>24,36%</t>
@@ -438,151 +426,145 @@
     <t>27,13%</t>
   </si>
   <si>
-    <t>71,93%</t>
+    <t>70,17%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>85,59%</t>
+    <t>85,73%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>15,2%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>50,76%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>14,27%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>84,8%</t>
+    <t>85,63%</t>
   </si>
   <si>
     <t>49,24%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>50,04%</t>
+    <t>36,61%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>49,96%</t>
+    <t>63,39%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>50,51%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>49,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354A7D92-003F-4BD9-85AD-C7A11AD3EEF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D76942-7208-4E20-A88C-A75B19571081}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1428,7 +1410,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -1440,13 +1422,13 @@
         <v>6113</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,13 +1443,13 @@
         <v>1869</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1476,13 +1458,13 @@
         <v>1096</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1491,13 +1473,13 @@
         <v>2964</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1535,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1565,7 +1547,7 @@
         <v>1866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
@@ -1580,10 +1562,10 @@
         <v>3786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -1595,10 +1577,10 @@
         <v>5652</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1616,7 +1598,7 @@
         <v>895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
@@ -1631,13 +1613,13 @@
         <v>1042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1646,13 +1628,13 @@
         <v>1937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1690,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1857,7 +1839,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1869,7 +1851,7 @@
         <v>2017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
@@ -1899,10 +1881,10 @@
         <v>5260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -1920,7 +1902,7 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
@@ -1950,13 +1932,13 @@
         <v>1036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,7 +1994,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2024,10 +2006,10 @@
         <v>5035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -2039,10 +2021,10 @@
         <v>3672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -2054,10 +2036,10 @@
         <v>8707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -2075,13 +2057,13 @@
         <v>953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2090,13 +2072,13 @@
         <v>988</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2105,13 +2087,13 @@
         <v>1941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,7 +2149,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2179,10 +2161,10 @@
         <v>6432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2209,10 +2191,10 @@
         <v>9793</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2230,13 +2212,13 @@
         <v>1132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2260,13 +2242,13 @@
         <v>1132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2316,13 @@
         <v>24750</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -2349,13 +2331,13 @@
         <v>18329</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -2364,13 +2346,13 @@
         <v>43080</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2367,13 @@
         <v>5885</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2400,13 +2382,13 @@
         <v>3125</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2415,13 +2397,13 @@
         <v>9010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2459,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A7B774-7A76-4BED-98E2-3620EC648012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3C2CD-5919-405F-BD43-A55D081F544E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,7 +2500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2625,10 +2607,10 @@
         <v>3979</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2640,10 +2622,10 @@
         <v>5894</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2655,10 +2637,10 @@
         <v>9873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2676,13 +2658,13 @@
         <v>836</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2691,13 +2673,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2706,13 +2688,13 @@
         <v>1856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,7 +2775,7 @@
         <v>1168</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -2808,7 +2790,7 @@
         <v>1168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>19</v>
@@ -2842,7 +2824,7 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -2857,7 +2839,7 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
@@ -2942,7 +2924,7 @@
         <v>2206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2957,7 +2939,7 @@
         <v>2206</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>19</v>
@@ -2991,7 +2973,7 @@
         <v>991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -3006,7 +2988,7 @@
         <v>991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
@@ -3066,7 +3048,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3221,7 +3203,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3233,10 +3215,10 @@
         <v>3013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -3263,10 +3245,10 @@
         <v>5996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3284,13 +3266,13 @@
         <v>2003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3314,13 +3296,13 @@
         <v>2003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3358,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3388,10 +3370,10 @@
         <v>2902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3403,7 +3385,7 @@
         <v>2388</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -3418,10 +3400,10 @@
         <v>5289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3439,13 +3421,13 @@
         <v>935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3454,7 +3436,7 @@
         <v>1035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -3469,13 +3451,13 @@
         <v>1970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3513,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3543,13 +3525,13 @@
         <v>2688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3558,10 +3540,10 @@
         <v>4873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3573,13 +3555,13 @@
         <v>7560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,10 +3576,10 @@
         <v>4355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -3609,13 +3591,13 @@
         <v>2979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3624,13 +3606,13 @@
         <v>7334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3698,10 +3680,10 @@
         <v>6977</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3713,13 +3695,13 @@
         <v>3241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3728,13 +3710,13 @@
         <v>10218</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3731,13 @@
         <v>955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3764,13 +3746,13 @@
         <v>2953</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3779,13 +3761,13 @@
         <v>3908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3835,13 @@
         <v>22447</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -3868,13 +3850,13 @@
         <v>23793</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -3883,13 +3865,13 @@
         <v>46240</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3886,13 @@
         <v>9084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3919,13 +3901,13 @@
         <v>9963</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -3934,13 +3916,13 @@
         <v>19047</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3978,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
